--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-707654.2286922107</v>
+        <v>-646782.9728303727</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17372041.81341184</v>
+        <v>16739564.3540454</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9507507.506557912</v>
+        <v>9506260.200564377</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>70.23861833638023</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -719,13 +719,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>254.2825694480995</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>399.0255309019932</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -829,10 +829,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>201.5909129367845</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>30.11288841831327</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>101.0627853050533</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>286.2721000371766</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>165.2047610440498</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1069,10 +1069,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>19.17722539571015</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1145,13 +1145,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>153.5234858671045</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>135.8826279644767</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>48.13786967117142</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>140.4342819615948</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>259.7109499935199</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1427,13 +1427,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>249.368244850273</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>131.3131589043801</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225723</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>65.07205481540569</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>121.4863929266239</v>
       </c>
     </row>
     <row r="15">
@@ -1819,19 +1819,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>172.6623007436915</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>107.379291304596</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>231.6491725185819</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>84.84161567886079</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2011,7 +2011,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2020,7 +2020,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>122.9742767430578</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>84.7199742749608</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2135,13 +2135,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>76.27391102879209</v>
       </c>
       <c r="W20" t="n">
-        <v>300.4724597345788</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2245,19 +2245,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>43.70143389869445</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>161.7153088076662</v>
       </c>
     </row>
     <row r="23">
@@ -2485,7 +2485,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>105.2234111170471</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225723</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225723</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2773,7 +2773,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>39.88277234054614</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.05677735225723</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930498</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317451</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>158.7042731591139</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277818</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432402</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934444</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>141.4132446762359</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.537639394324</v>
+        <v>71.53763939432362</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742935332</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3481,7 +3481,7 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095264</v>
+        <v>267.8502427095265</v>
       </c>
       <c r="W37" t="n">
         <v>253.070430030824</v>
@@ -3509,13 +3509,13 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545403</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F38" t="n">
-        <v>407.3530449561369</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242213</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H38" t="n">
         <v>270.0031426724685</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925367</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3560,7 +3560,7 @@
         <v>240.3943693174059</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267643</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W38" t="n">
         <v>384.5711897043296</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.537639394324</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934433</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3718,7 +3718,7 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095264</v>
+        <v>267.8502427095265</v>
       </c>
       <c r="W40" t="n">
         <v>253.070430030824</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402849</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>946.912771746277</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>1626.23533075074</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>1367.013028067757</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>1004.396078001584</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>599.5406234126169</v>
+        <v>1791.370493431665</v>
       </c>
       <c r="X2" t="n">
-        <v>180.3981599919276</v>
+        <v>1372.228030010976</v>
       </c>
       <c r="Y2" t="n">
-        <v>176.1524403319851</v>
+        <v>969.1719381907808</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>807.508379929692</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C4" t="n">
-        <v>634.9466684129169</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>469.0686756144395</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>299.3106718651768</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1675.765608785789</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1675.765608785789</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1472.138424001158</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1226.746669334571</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y4" t="n">
-        <v>999.3269986486791</v>
+        <v>1151.716284342722</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1340.268492507381</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1306.166423731208</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>870.2566389056524</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1408.019692669128</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W5" t="n">
-        <v>1003.164238080161</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X5" t="n">
-        <v>584.0217746594717</v>
+        <v>1366.773378611827</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>1362.527658951884</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>739.9048540962709</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>986.8689873182002</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1235.38760622724</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1655.056855453022</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1497.153305340644</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1497.153305340644</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1497.153305340644</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1497.153305340644</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1251.761550674057</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y7" t="n">
-        <v>1024.341879988165</v>
+        <v>1178.687606037187</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>975.2955833764406</v>
+        <v>1382.829461272046</v>
       </c>
       <c r="C8" t="n">
-        <v>537.153110559864</v>
+        <v>944.6869884554692</v>
       </c>
       <c r="D8" t="n">
-        <v>101.2433257343085</v>
+        <v>508.7772036299137</v>
       </c>
       <c r="E8" t="n">
-        <v>71.5089849330077</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>47.6819593826195</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>47.6819593826195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>47.6819593826195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>47.6819593826195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>47.6819593826195</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>47.6819593826195</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>47.6819593826195</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>488.3166236994905</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1078.380871059407</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O8" t="n">
-        <v>1668.445118419323</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>1668.445118419323</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.943904377918</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2384.097969130975</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2384.097969130975</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2384.097969130975</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2384.097969130975</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>2384.097969130975</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>2229.023740982384</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X8" t="n">
-        <v>1809.881277561695</v>
+        <v>1946.384211519051</v>
       </c>
       <c r="Y8" t="n">
-        <v>1401.595153861349</v>
+        <v>1809.129031756954</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>553.8537043739123</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>447.3972432105546</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>352.3069543571078</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>258.1865396840615</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>174.8027013002231</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>89.41761156640703</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>47.6819593826195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>47.6819593826195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>47.6819593826195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>47.6819593826195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>47.6819593826195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>47.6819593826195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>462.9457567750969</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>1053.010004135013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1053.010004135013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1593.748942767089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1710.921720861428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1647.466283309811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1517.287639640413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1340.951092640381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.833574702381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>956.5108204355747</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>801.6433846744546</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>675.1576054536754</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>914.1425700313621</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>914.1425700313621</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>748.2645772328848</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>578.5065734836221</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>401.7995194453783</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>236.208244471206</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>96.30607016158052</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>47.6819593826195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>47.6819593826195</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>128.7764989640005</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>546.9863807319616</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1006.470247912875</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1448.729051070519</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1868.398300296301</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2215.905194266642</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2384.097969130975</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2384.097969130975</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.856600428971</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1978.977154007427</v>
+        <v>2347.54882637258</v>
       </c>
       <c r="U10" t="n">
-        <v>1700.544153260532</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="V10" t="n">
-        <v>1413.588645130962</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1141.562240717254</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1141.562240717254</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>914.1425700313621</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.40688317488</v>
+        <v>2518.377898903937</v>
       </c>
       <c r="C11" t="n">
-        <v>1907.264410358303</v>
+        <v>2080.23542608736</v>
       </c>
       <c r="D11" t="n">
-        <v>1471.354625532747</v>
+        <v>1644.325641261804</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.02033261</v>
+        <v>1210.550896420099</v>
       </c>
       <c r="F11" t="n">
-        <v>781.1529030192074</v>
+        <v>782.6834668293071</v>
       </c>
       <c r="G11" t="n">
-        <v>379.7550716424714</v>
+        <v>381.285635452571</v>
       </c>
       <c r="H11" t="n">
-        <v>90.62491708568764</v>
+        <v>92.15548089578729</v>
       </c>
       <c r="I11" t="n">
-        <v>90.20812771282765</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="J11" t="n">
-        <v>525.4628151657455</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="K11" t="n">
-        <v>1359.813107123923</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="L11" t="n">
-        <v>1359.813107123923</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="M11" t="n">
-        <v>1986.263993526029</v>
+        <v>937.0612005945642</v>
       </c>
       <c r="N11" t="n">
-        <v>1986.263993526029</v>
+        <v>2062.792184031011</v>
       </c>
       <c r="O11" t="n">
-        <v>2966.443660096335</v>
+        <v>3042.971850601317</v>
       </c>
       <c r="P11" t="n">
-        <v>3794.753534929731</v>
+        <v>3871.281725434714</v>
       </c>
       <c r="Q11" t="n">
-        <v>4341.252320888326</v>
+        <v>4417.780511393308</v>
       </c>
       <c r="R11" t="n">
-        <v>4510.406385641382</v>
+        <v>4586.934576146365</v>
       </c>
       <c r="S11" t="n">
-        <v>4426.754511825219</v>
+        <v>4503.282702330202</v>
       </c>
       <c r="T11" t="n">
-        <v>4206.687284698258</v>
+        <v>4283.21547520324</v>
       </c>
       <c r="U11" t="n">
-        <v>3947.464982015274</v>
+        <v>4023.993172520257</v>
       </c>
       <c r="V11" t="n">
-        <v>3584.848031949101</v>
+        <v>4023.993172520257</v>
       </c>
       <c r="W11" t="n">
-        <v>3179.992577360134</v>
+        <v>3772.10605650988</v>
       </c>
       <c r="X11" t="n">
-        <v>3179.992577360134</v>
+        <v>3352.963593089191</v>
       </c>
       <c r="Y11" t="n">
-        <v>2771.706453659787</v>
+        <v>2944.677469388844</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>596.3798727041204</v>
+        <v>597.9104365142201</v>
       </c>
       <c r="C12" t="n">
-        <v>489.9234115407627</v>
+        <v>491.4539753508624</v>
       </c>
       <c r="D12" t="n">
-        <v>394.833122687316</v>
+        <v>396.3636864974156</v>
       </c>
       <c r="E12" t="n">
-        <v>300.7127080142697</v>
+        <v>302.2432718243693</v>
       </c>
       <c r="F12" t="n">
-        <v>217.3288696304313</v>
+        <v>218.8594334405309</v>
       </c>
       <c r="G12" t="n">
-        <v>131.9437798966152</v>
+        <v>133.4743437067148</v>
       </c>
       <c r="H12" t="n">
-        <v>90.20812771282765</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="I12" t="n">
-        <v>90.20812771282765</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="J12" t="n">
-        <v>90.20812771282765</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="K12" t="n">
-        <v>90.20812771282765</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="L12" t="n">
-        <v>90.20812771282765</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="M12" t="n">
-        <v>90.20812771282765</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="N12" t="n">
-        <v>90.20812771282765</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="O12" t="n">
-        <v>275.8130059860231</v>
+        <v>277.3435697961227</v>
       </c>
       <c r="P12" t="n">
-        <v>1095.536172465221</v>
+        <v>1097.066736275321</v>
       </c>
       <c r="Q12" t="n">
-        <v>1636.275111097297</v>
+        <v>1637.805674907396</v>
       </c>
       <c r="R12" t="n">
-        <v>1753.447889191636</v>
+        <v>1754.978453001736</v>
       </c>
       <c r="S12" t="n">
-        <v>1689.992451640019</v>
+        <v>1691.523015450119</v>
       </c>
       <c r="T12" t="n">
-        <v>1559.813807970621</v>
+        <v>1561.344371780721</v>
       </c>
       <c r="U12" t="n">
-        <v>1383.477260970589</v>
+        <v>1385.007824780689</v>
       </c>
       <c r="V12" t="n">
-        <v>1184.359743032589</v>
+        <v>1185.890306842688</v>
       </c>
       <c r="W12" t="n">
-        <v>999.0369887657828</v>
+        <v>1000.567552575882</v>
       </c>
       <c r="X12" t="n">
-        <v>844.1695530046628</v>
+        <v>845.7001168147625</v>
       </c>
       <c r="Y12" t="n">
-        <v>717.6837737838836</v>
+        <v>719.2143375939833</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>940.7041647897589</v>
+        <v>998.2351406180336</v>
       </c>
       <c r="C13" t="n">
-        <v>768.1424532729839</v>
+        <v>998.2351406180336</v>
       </c>
       <c r="D13" t="n">
-        <v>602.2644604745067</v>
+        <v>832.3571478195563</v>
       </c>
       <c r="E13" t="n">
-        <v>432.5064567252439</v>
+        <v>662.5991440702936</v>
       </c>
       <c r="F13" t="n">
-        <v>255.7994026870001</v>
+        <v>485.8920900320498</v>
       </c>
       <c r="G13" t="n">
-        <v>90.20812771282772</v>
+        <v>320.3008150578775</v>
       </c>
       <c r="H13" t="n">
-        <v>90.20812771282765</v>
+        <v>180.398640748252</v>
       </c>
       <c r="I13" t="n">
-        <v>90.20812771282765</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="J13" t="n">
-        <v>176.7878128775175</v>
+        <v>178.3183766876172</v>
       </c>
       <c r="K13" t="n">
-        <v>451.5462674486531</v>
+        <v>453.0768312587527</v>
       </c>
       <c r="L13" t="n">
-        <v>869.7561492166142</v>
+        <v>871.2867130267139</v>
       </c>
       <c r="M13" t="n">
-        <v>1329.240016397527</v>
+        <v>1330.770580207627</v>
       </c>
       <c r="N13" t="n">
-        <v>1771.498819555172</v>
+        <v>1773.029383365271</v>
       </c>
       <c r="O13" t="n">
-        <v>2191.168068780953</v>
+        <v>2192.698632591053</v>
       </c>
       <c r="P13" t="n">
-        <v>2538.674962751295</v>
+        <v>2540.205526561395</v>
       </c>
       <c r="Q13" t="n">
-        <v>2706.867737615627</v>
+        <v>2708.398301425727</v>
       </c>
       <c r="R13" t="n">
-        <v>2706.867737615627</v>
+        <v>2686.980480131099</v>
       </c>
       <c r="S13" t="n">
-        <v>2688.628568572943</v>
+        <v>2686.980480131099</v>
       </c>
       <c r="T13" t="n">
-        <v>2442.749122151398</v>
+        <v>2441.101033709554</v>
       </c>
       <c r="U13" t="n">
-        <v>2164.316121404504</v>
+        <v>2162.66803296266</v>
       </c>
       <c r="V13" t="n">
-        <v>1877.360613274934</v>
+        <v>1875.71252483309</v>
       </c>
       <c r="W13" t="n">
-        <v>1605.334208861225</v>
+        <v>1603.686120419382</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.942454194638</v>
+        <v>1358.294365752794</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.522783508746</v>
+        <v>1130.874695066902</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2521.541471688799</v>
+        <v>2523.072035498898</v>
       </c>
       <c r="C14" t="n">
-        <v>2083.398998872222</v>
+        <v>2084.929562682321</v>
       </c>
       <c r="D14" t="n">
-        <v>1647.489214046666</v>
+        <v>1649.019777856766</v>
       </c>
       <c r="E14" t="n">
-        <v>1213.714469204961</v>
+        <v>1215.245033015061</v>
       </c>
       <c r="F14" t="n">
-        <v>785.8470396141693</v>
+        <v>787.377603424269</v>
       </c>
       <c r="G14" t="n">
-        <v>384.4492082374332</v>
+        <v>385.9797720475328</v>
       </c>
       <c r="H14" t="n">
-        <v>95.31905368064945</v>
+        <v>96.84961749074907</v>
       </c>
       <c r="I14" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J14" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="K14" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="L14" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="M14" t="n">
-        <v>1251.95009951834</v>
+        <v>1171.768030342654</v>
       </c>
       <c r="N14" t="n">
-        <v>2377.681082954787</v>
+        <v>2297.499013779101</v>
       </c>
       <c r="O14" t="n">
-        <v>3357.860749525094</v>
+        <v>3277.678680349407</v>
       </c>
       <c r="P14" t="n">
-        <v>4186.17062435849</v>
+        <v>4105.988555182803</v>
       </c>
       <c r="Q14" t="n">
-        <v>4575.959150636416</v>
+        <v>4652.487341141397</v>
       </c>
       <c r="R14" t="n">
-        <v>4745.113215389472</v>
+        <v>4821.641405894454</v>
       </c>
       <c r="S14" t="n">
-        <v>4661.461341573309</v>
+        <v>4737.989532078291</v>
       </c>
       <c r="T14" t="n">
-        <v>4441.394114446348</v>
+        <v>4517.922304951329</v>
       </c>
       <c r="U14" t="n">
-        <v>4182.171811763365</v>
+        <v>4258.700002268346</v>
       </c>
       <c r="V14" t="n">
-        <v>3819.554861697191</v>
+        <v>3896.083052202172</v>
       </c>
       <c r="W14" t="n">
-        <v>3414.699407108224</v>
+        <v>3491.227597613206</v>
       </c>
       <c r="X14" t="n">
-        <v>2995.556943687535</v>
+        <v>3072.085134192517</v>
       </c>
       <c r="Y14" t="n">
-        <v>2587.270819987189</v>
+        <v>2949.371605983806</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>601.0740092990823</v>
+        <v>602.6045731091818</v>
       </c>
       <c r="C15" t="n">
-        <v>494.6175481357245</v>
+        <v>496.1481119458242</v>
       </c>
       <c r="D15" t="n">
-        <v>399.5272592822778</v>
+        <v>401.0578230923774</v>
       </c>
       <c r="E15" t="n">
-        <v>305.4068446092315</v>
+        <v>306.9374084193311</v>
       </c>
       <c r="F15" t="n">
-        <v>222.0230062253931</v>
+        <v>223.5535700354927</v>
       </c>
       <c r="G15" t="n">
-        <v>136.637916491577</v>
+        <v>138.1684803016766</v>
       </c>
       <c r="H15" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="I15" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J15" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="K15" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="L15" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="M15" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="N15" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="O15" t="n">
-        <v>280.507142580985</v>
+        <v>282.0377063910843</v>
       </c>
       <c r="P15" t="n">
-        <v>1100.230309060183</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="Q15" t="n">
-        <v>1640.969247692259</v>
+        <v>1642.499811502358</v>
       </c>
       <c r="R15" t="n">
-        <v>1758.142025786598</v>
+        <v>1759.672589596698</v>
       </c>
       <c r="S15" t="n">
-        <v>1694.686588234981</v>
+        <v>1696.217152045081</v>
       </c>
       <c r="T15" t="n">
-        <v>1564.507944565583</v>
+        <v>1566.038508375683</v>
       </c>
       <c r="U15" t="n">
-        <v>1388.171397565551</v>
+        <v>1389.701961375651</v>
       </c>
       <c r="V15" t="n">
-        <v>1189.053879627551</v>
+        <v>1190.58444343765</v>
       </c>
       <c r="W15" t="n">
-        <v>1003.731125360745</v>
+        <v>1005.261689170844</v>
       </c>
       <c r="X15" t="n">
-        <v>848.8636895996246</v>
+        <v>850.3942534097242</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3779103788454</v>
+        <v>723.908474188945</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1173.960424919671</v>
+        <v>1175.49098872977</v>
       </c>
       <c r="C16" t="n">
-        <v>1001.398713402896</v>
+        <v>1002.929277212995</v>
       </c>
       <c r="D16" t="n">
-        <v>835.5207206044188</v>
+        <v>837.051284414518</v>
       </c>
       <c r="E16" t="n">
-        <v>665.7627168551558</v>
+        <v>667.2932806652553</v>
       </c>
       <c r="F16" t="n">
-        <v>489.0556628169119</v>
+        <v>490.5862266270116</v>
       </c>
       <c r="G16" t="n">
-        <v>323.4643878427396</v>
+        <v>324.9949516528392</v>
       </c>
       <c r="H16" t="n">
-        <v>183.5622135331141</v>
+        <v>185.0927773432138</v>
       </c>
       <c r="I16" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J16" t="n">
-        <v>181.4819494724793</v>
+        <v>183.0125132825789</v>
       </c>
       <c r="K16" t="n">
-        <v>456.2404040436148</v>
+        <v>457.7709678537145</v>
       </c>
       <c r="L16" t="n">
-        <v>874.4502858115759</v>
+        <v>875.9808496216755</v>
       </c>
       <c r="M16" t="n">
-        <v>1333.934152992489</v>
+        <v>1335.464716802589</v>
       </c>
       <c r="N16" t="n">
-        <v>1776.192956150133</v>
+        <v>1777.723519960233</v>
       </c>
       <c r="O16" t="n">
-        <v>2195.862205375915</v>
+        <v>2197.392769186014</v>
       </c>
       <c r="P16" t="n">
-        <v>2543.369099346256</v>
+        <v>2544.899663156356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2711.561874210589</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="R16" t="n">
-        <v>2690.144052915961</v>
+        <v>2691.674616726061</v>
       </c>
       <c r="S16" t="n">
-        <v>2530.902684213957</v>
+        <v>2532.433248024057</v>
       </c>
       <c r="T16" t="n">
-        <v>2285.023237792413</v>
+        <v>2286.553801602513</v>
       </c>
       <c r="U16" t="n">
-        <v>2285.023237792413</v>
+        <v>2008.120800855618</v>
       </c>
       <c r="V16" t="n">
-        <v>2110.616873404846</v>
+        <v>1721.165292726048</v>
       </c>
       <c r="W16" t="n">
-        <v>1838.590468991138</v>
+        <v>1721.165292726048</v>
       </c>
       <c r="X16" t="n">
-        <v>1593.19871432455</v>
+        <v>1475.773538059461</v>
       </c>
       <c r="Y16" t="n">
-        <v>1365.779043638659</v>
+        <v>1367.309607448758</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2521.541471688799</v>
+        <v>2321.151313823425</v>
       </c>
       <c r="C17" t="n">
-        <v>2083.398998872222</v>
+        <v>1883.008841006849</v>
       </c>
       <c r="D17" t="n">
-        <v>1647.489214046666</v>
+        <v>1649.019777856766</v>
       </c>
       <c r="E17" t="n">
-        <v>1213.714469204961</v>
+        <v>1215.245033015061</v>
       </c>
       <c r="F17" t="n">
-        <v>785.8470396141693</v>
+        <v>787.377603424269</v>
       </c>
       <c r="G17" t="n">
-        <v>384.4492082374332</v>
+        <v>385.9797720475328</v>
       </c>
       <c r="H17" t="n">
-        <v>95.31905368064945</v>
+        <v>96.84961749074907</v>
       </c>
       <c r="I17" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J17" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="K17" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="L17" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="M17" t="n">
-        <v>1251.95009951834</v>
+        <v>1253.48066332844</v>
       </c>
       <c r="N17" t="n">
-        <v>2377.681082954787</v>
+        <v>2379.211646764887</v>
       </c>
       <c r="O17" t="n">
-        <v>3357.860749525094</v>
+        <v>3359.391313335193</v>
       </c>
       <c r="P17" t="n">
-        <v>4186.17062435849</v>
+        <v>4187.701188168589</v>
       </c>
       <c r="Q17" t="n">
-        <v>4732.669410317085</v>
+        <v>4652.487341141397</v>
       </c>
       <c r="R17" t="n">
-        <v>4745.113215389472</v>
+        <v>4821.641405894454</v>
       </c>
       <c r="S17" t="n">
-        <v>4745.113215389472</v>
+        <v>4821.641405894454</v>
       </c>
       <c r="T17" t="n">
-        <v>4525.045988262511</v>
+        <v>4601.574178767492</v>
       </c>
       <c r="U17" t="n">
-        <v>4265.823685579528</v>
+        <v>4342.351876084509</v>
       </c>
       <c r="V17" t="n">
-        <v>4180.125083883709</v>
+        <v>3979.734926018335</v>
       </c>
       <c r="W17" t="n">
-        <v>3775.269629294742</v>
+        <v>3574.879471429369</v>
       </c>
       <c r="X17" t="n">
-        <v>3356.127165874053</v>
+        <v>3155.73700800868</v>
       </c>
       <c r="Y17" t="n">
-        <v>2947.841042173706</v>
+        <v>2747.450884308333</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>601.0740092990823</v>
+        <v>602.6045731091818</v>
       </c>
       <c r="C18" t="n">
-        <v>494.6175481357245</v>
+        <v>496.1481119458242</v>
       </c>
       <c r="D18" t="n">
-        <v>399.5272592822778</v>
+        <v>401.0578230923774</v>
       </c>
       <c r="E18" t="n">
-        <v>305.4068446092315</v>
+        <v>306.9374084193311</v>
       </c>
       <c r="F18" t="n">
-        <v>222.0230062253931</v>
+        <v>223.5535700354927</v>
       </c>
       <c r="G18" t="n">
-        <v>136.637916491577</v>
+        <v>138.1684803016766</v>
       </c>
       <c r="H18" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="I18" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J18" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="K18" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="L18" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="M18" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="N18" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="O18" t="n">
-        <v>280.507142580985</v>
+        <v>282.0377063910843</v>
       </c>
       <c r="P18" t="n">
-        <v>1100.230309060183</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="Q18" t="n">
-        <v>1640.969247692259</v>
+        <v>1642.499811502358</v>
       </c>
       <c r="R18" t="n">
-        <v>1758.142025786598</v>
+        <v>1759.672589596698</v>
       </c>
       <c r="S18" t="n">
-        <v>1694.686588234981</v>
+        <v>1696.217152045081</v>
       </c>
       <c r="T18" t="n">
-        <v>1564.507944565583</v>
+        <v>1566.038508375683</v>
       </c>
       <c r="U18" t="n">
-        <v>1388.171397565551</v>
+        <v>1389.701961375651</v>
       </c>
       <c r="V18" t="n">
-        <v>1189.053879627551</v>
+        <v>1190.58444343765</v>
       </c>
       <c r="W18" t="n">
-        <v>1003.731125360745</v>
+        <v>1005.261689170844</v>
       </c>
       <c r="X18" t="n">
-        <v>848.8636895996246</v>
+        <v>850.3942534097242</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3779103788454</v>
+        <v>723.908474188945</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1085.300475694346</v>
+        <v>998.7839346915266</v>
       </c>
       <c r="C19" t="n">
-        <v>912.7387641775713</v>
+        <v>826.2222231747515</v>
       </c>
       <c r="D19" t="n">
-        <v>746.8607713790941</v>
+        <v>660.3442303762743</v>
       </c>
       <c r="E19" t="n">
-        <v>577.1027676298313</v>
+        <v>490.5862266270116</v>
       </c>
       <c r="F19" t="n">
-        <v>400.3957135915875</v>
+        <v>490.5862266270116</v>
       </c>
       <c r="G19" t="n">
-        <v>234.8044386174151</v>
+        <v>324.9949516528392</v>
       </c>
       <c r="H19" t="n">
-        <v>94.90226430778945</v>
+        <v>185.0927773432138</v>
       </c>
       <c r="I19" t="n">
-        <v>94.90226430778945</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J19" t="n">
-        <v>181.4819494724793</v>
+        <v>183.0125132825789</v>
       </c>
       <c r="K19" t="n">
-        <v>456.2404040436148</v>
+        <v>457.7709678537145</v>
       </c>
       <c r="L19" t="n">
-        <v>874.4502858115759</v>
+        <v>875.9808496216755</v>
       </c>
       <c r="M19" t="n">
-        <v>1333.934152992489</v>
+        <v>1335.464716802589</v>
       </c>
       <c r="N19" t="n">
-        <v>1776.192956150133</v>
+        <v>1777.723519960233</v>
       </c>
       <c r="O19" t="n">
-        <v>2195.862205375915</v>
+        <v>2197.392769186014</v>
       </c>
       <c r="P19" t="n">
-        <v>2543.369099346256</v>
+        <v>2544.899663156356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2711.561874210589</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="R19" t="n">
-        <v>2711.561874210589</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="S19" t="n">
-        <v>2587.345433055986</v>
+        <v>2553.851069318685</v>
       </c>
       <c r="T19" t="n">
-        <v>2587.345433055986</v>
+        <v>2307.971622897141</v>
       </c>
       <c r="U19" t="n">
-        <v>2308.912432309091</v>
+        <v>2222.395891306271</v>
       </c>
       <c r="V19" t="n">
-        <v>2021.956924179521</v>
+        <v>1935.440383176702</v>
       </c>
       <c r="W19" t="n">
-        <v>1749.930519765813</v>
+        <v>1663.413978762993</v>
       </c>
       <c r="X19" t="n">
-        <v>1504.538765099225</v>
+        <v>1418.022224096406</v>
       </c>
       <c r="Y19" t="n">
-        <v>1277.119094413334</v>
+        <v>1190.602553410514</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2521.541471688799</v>
+        <v>2523.072035498898</v>
       </c>
       <c r="C20" t="n">
-        <v>2083.398998872222</v>
+        <v>2084.929562682321</v>
       </c>
       <c r="D20" t="n">
-        <v>1647.489214046666</v>
+        <v>1649.019777856766</v>
       </c>
       <c r="E20" t="n">
-        <v>1213.714469204961</v>
+        <v>1215.245033015061</v>
       </c>
       <c r="F20" t="n">
-        <v>785.8470396141693</v>
+        <v>787.377603424269</v>
       </c>
       <c r="G20" t="n">
-        <v>384.4492082374332</v>
+        <v>385.9797720475328</v>
       </c>
       <c r="H20" t="n">
-        <v>95.31905368064946</v>
+        <v>96.84961749074907</v>
       </c>
       <c r="I20" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J20" t="n">
-        <v>94.90226430778947</v>
+        <v>531.687515570807</v>
       </c>
       <c r="K20" t="n">
-        <v>94.90226430778947</v>
+        <v>1366.037807528985</v>
       </c>
       <c r="L20" t="n">
-        <v>94.90226430778947</v>
+        <v>1366.037807528985</v>
       </c>
       <c r="M20" t="n">
-        <v>1251.95009951834</v>
+        <v>1366.037807528985</v>
       </c>
       <c r="N20" t="n">
-        <v>2377.681082954787</v>
+        <v>2491.768790965432</v>
       </c>
       <c r="O20" t="n">
-        <v>3357.860749525094</v>
+        <v>3277.678680349407</v>
       </c>
       <c r="P20" t="n">
-        <v>4186.17062435849</v>
+        <v>4105.988555182803</v>
       </c>
       <c r="Q20" t="n">
-        <v>4732.669410317085</v>
+        <v>4652.487341141397</v>
       </c>
       <c r="R20" t="n">
-        <v>4745.113215389473</v>
+        <v>4821.641405894454</v>
       </c>
       <c r="S20" t="n">
-        <v>4661.46134157331</v>
+        <v>4737.989532078291</v>
       </c>
       <c r="T20" t="n">
-        <v>4441.394114446349</v>
+        <v>4517.922304951329</v>
       </c>
       <c r="U20" t="n">
-        <v>4441.394114446349</v>
+        <v>4258.700002268346</v>
       </c>
       <c r="V20" t="n">
-        <v>4078.777164380175</v>
+        <v>4181.655647693809</v>
       </c>
       <c r="W20" t="n">
-        <v>3775.269629294742</v>
+        <v>3776.800193104842</v>
       </c>
       <c r="X20" t="n">
-        <v>3356.127165874053</v>
+        <v>3357.657729684152</v>
       </c>
       <c r="Y20" t="n">
-        <v>2947.841042173706</v>
+        <v>2949.371605983806</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>601.0740092990823</v>
+        <v>602.6045731091818</v>
       </c>
       <c r="C21" t="n">
-        <v>494.6175481357245</v>
+        <v>496.1481119458242</v>
       </c>
       <c r="D21" t="n">
-        <v>399.5272592822778</v>
+        <v>401.0578230923774</v>
       </c>
       <c r="E21" t="n">
-        <v>305.4068446092315</v>
+        <v>306.9374084193311</v>
       </c>
       <c r="F21" t="n">
-        <v>222.0230062253931</v>
+        <v>223.5535700354927</v>
       </c>
       <c r="G21" t="n">
-        <v>136.637916491577</v>
+        <v>138.1684803016766</v>
       </c>
       <c r="H21" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="I21" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J21" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="K21" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="L21" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="M21" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="N21" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="O21" t="n">
-        <v>280.507142580985</v>
+        <v>282.0377063910843</v>
       </c>
       <c r="P21" t="n">
-        <v>1100.230309060183</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="Q21" t="n">
-        <v>1640.969247692259</v>
+        <v>1642.499811502358</v>
       </c>
       <c r="R21" t="n">
-        <v>1758.142025786598</v>
+        <v>1759.672589596698</v>
       </c>
       <c r="S21" t="n">
-        <v>1694.686588234981</v>
+        <v>1696.217152045081</v>
       </c>
       <c r="T21" t="n">
-        <v>1564.507944565583</v>
+        <v>1566.038508375683</v>
       </c>
       <c r="U21" t="n">
-        <v>1388.171397565551</v>
+        <v>1389.701961375651</v>
       </c>
       <c r="V21" t="n">
-        <v>1189.053879627551</v>
+        <v>1190.58444343765</v>
       </c>
       <c r="W21" t="n">
-        <v>1003.731125360745</v>
+        <v>1005.261689170844</v>
       </c>
       <c r="X21" t="n">
-        <v>848.8636895996246</v>
+        <v>850.3942534097242</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.3779103788454</v>
+        <v>723.908474188945</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>782.9782804307732</v>
+        <v>869.9975394459727</v>
       </c>
       <c r="C22" t="n">
-        <v>610.4165689139982</v>
+        <v>697.4358279291977</v>
       </c>
       <c r="D22" t="n">
-        <v>444.538576115521</v>
+        <v>531.5578351307204</v>
       </c>
       <c r="E22" t="n">
-        <v>400.3957135915873</v>
+        <v>361.7998313814576</v>
       </c>
       <c r="F22" t="n">
-        <v>400.3957135915873</v>
+        <v>185.0927773432138</v>
       </c>
       <c r="G22" t="n">
-        <v>234.8044386174149</v>
+        <v>185.0927773432138</v>
       </c>
       <c r="H22" t="n">
-        <v>94.90226430778947</v>
+        <v>185.0927773432138</v>
       </c>
       <c r="I22" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J22" t="n">
-        <v>181.4819494724793</v>
+        <v>183.0125132825789</v>
       </c>
       <c r="K22" t="n">
-        <v>456.2404040436149</v>
+        <v>457.7709678537145</v>
       </c>
       <c r="L22" t="n">
-        <v>874.4502858115759</v>
+        <v>875.9808496216755</v>
       </c>
       <c r="M22" t="n">
-        <v>1333.934152992489</v>
+        <v>1335.464716802589</v>
       </c>
       <c r="N22" t="n">
-        <v>1776.192956150133</v>
+        <v>1777.723519960233</v>
       </c>
       <c r="O22" t="n">
-        <v>2195.862205375915</v>
+        <v>2197.392769186014</v>
       </c>
       <c r="P22" t="n">
-        <v>2543.369099346256</v>
+        <v>2544.899663156356</v>
       </c>
       <c r="Q22" t="n">
-        <v>2711.561874210589</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="R22" t="n">
-        <v>2690.144052915961</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="S22" t="n">
-        <v>2530.902684213957</v>
+        <v>2553.851069318685</v>
       </c>
       <c r="T22" t="n">
-        <v>2285.023237792413</v>
+        <v>2307.971622897141</v>
       </c>
       <c r="U22" t="n">
-        <v>2006.590237045518</v>
+        <v>2029.538622150246</v>
       </c>
       <c r="V22" t="n">
-        <v>1719.634728915948</v>
+        <v>1742.583114020676</v>
       </c>
       <c r="W22" t="n">
-        <v>1447.60832450224</v>
+        <v>1470.556709606968</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.216569835652</v>
+        <v>1225.16495494038</v>
       </c>
       <c r="Y22" t="n">
-        <v>974.7968991497603</v>
+        <v>1061.81615816496</v>
       </c>
     </row>
     <row r="23">
@@ -5987,13 +5987,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
         <v>1463.16863798718</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8521152449521</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707797</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6224,13 +6224,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
         <v>1463.16863798718</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324586</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.8521152449521</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707797</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6461,13 +6461,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M29" t="n">
         <v>1463.16863798718</v>
@@ -6537,22 +6537,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O30" t="n">
         <v>287.8657185439749</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,7 +6643,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
         <v>2700.681281130895</v>
@@ -6774,22 +6774,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O33" t="n">
         <v>287.8657185439749</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.521048992528</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886291</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>760.880759503028</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666414</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412738</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708294</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773249</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806459</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>1405.586141896919</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>1863.918298289923</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751064</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.647500885579</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.16776187691</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826198</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825366</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.939960298639</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6938,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7011,22 +7011,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O36" t="n">
         <v>287.8657185439749</v>
@@ -7072,22 +7072,22 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886289</v>
+        <v>910.3590448886287</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030278</v>
+        <v>760.8807595030275</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666413</v>
+        <v>607.5224631666409</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412736</v>
+        <v>447.2151165412733</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799771</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>174.5210820832277</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7099,7 +7099,7 @@
         <v>495.7456864773249</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806459</v>
+        <v>930.0289214806457</v>
       </c>
       <c r="M37" t="n">
         <v>1405.586141896919</v>
@@ -7108,13 +7108,13 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956767</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
         <v>2842.489162174706</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835853</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197254</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M38" t="n">
-        <v>1228.461808239091</v>
+        <v>1228.461808239092</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.192791675538</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245844</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.68233307924</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037835</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="O39" t="n">
         <v>283.1715819490133</v>
@@ -7309,25 +7309,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936673</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E40" t="n">
         <v>602.8283265716796</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7336,7 +7336,7 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856841</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
@@ -7348,10 +7348,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579745</v>
@@ -7409,28 +7409,28 @@
         <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581783</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>97.56670367581783</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>97.56670367581783</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>1228.461808239091</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245844</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.68233307924</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790891</v>
@@ -7448,13 +7448,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="O42" t="n">
         <v>283.1715819490133</v>
@@ -7546,22 +7546,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
         <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463121</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.329412385016</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
         <v>97.56670367581783</v>
@@ -7585,13 +7585,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7600,7 +7600,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7609,7 +7609,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7649,10 +7649,10 @@
         <v>97.56670367581783</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581783</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L44" t="n">
-        <v>97.56670367581783</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="M44" t="n">
         <v>1228.461808239091</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8301,19 +8301,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,22 +8377,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>42.55209558322758</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,22 +8450,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>445.085519511991</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N8" t="n">
-        <v>596.0244922827437</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>596.0244922827437</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8541,10 +8541,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>419.4583812045227</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O9" t="n">
-        <v>596.0244922827437</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>81.91367634482933</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>632.77867313344</v>
+        <v>853.8611202743807</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1086.197173964409</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8945,7 +8945,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>393.7257841191167</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -9182,10 +9182,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>469.4809625987964</v>
       </c>
       <c r="R17" t="n">
-        <v>12.56950007311843</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>793.8483731151264</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>12.56950007311934</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -10586,10 +10586,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10598,16 +10598,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.31828743765</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -11297,13 +11297,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.31828743765</v>
+        <v>299.5402147526216</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>146.5243305949775</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>169.7260473997678</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>151.438655192804</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>58.58727362741712</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627261</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>356.964519964653</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>282.7168695367192</v>
       </c>
     </row>
     <row r="15">
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>111.4236523045823</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>117.7661826744368</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>199.901514458718</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>274.149164886651</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>34.6746782719255</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>190.9286964644649</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>282.7168695367196</v>
       </c>
       <c r="W20" t="n">
-        <v>100.3344403084982</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>124.3589898130757</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>63.43016517136661</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>69.71657238081421</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627261</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627261</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>229.4233680290253</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.146865729424608</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>4.209965709378594e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
     </row>
     <row r="44">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>844432.0288273934</v>
+        <v>821829.6509018569</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756499.7287211595</v>
+        <v>765808.1566553097</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>785048.0531483614</v>
+        <v>794356.4810825114</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>785048.0531483612</v>
+        <v>794356.4810825111</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>785048.0531483615</v>
+        <v>794356.4810825114</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>844432.0288273934</v>
+        <v>829800.6950163296</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93825.78098082151</v>
+        <v>91314.4056557619</v>
       </c>
       <c r="C2" t="n">
         <v>93825.78098082151</v>
       </c>
       <c r="D2" t="n">
-        <v>93825.78098082148</v>
+        <v>93825.78098082147</v>
       </c>
       <c r="E2" t="n">
-        <v>84055.52541346218</v>
+        <v>85089.79518392331</v>
       </c>
       <c r="F2" t="n">
-        <v>87227.56146092905</v>
+        <v>88261.83123139016</v>
       </c>
       <c r="G2" t="n">
-        <v>87227.56146092906</v>
+        <v>88261.83123139016</v>
       </c>
       <c r="H2" t="n">
-        <v>87227.56146092905</v>
+        <v>88261.83123139017</v>
       </c>
       <c r="I2" t="n">
-        <v>92200.07722403664</v>
+        <v>92200.07722403666</v>
       </c>
       <c r="J2" t="n">
-        <v>92200.07722403664</v>
+        <v>92200.07722403666</v>
       </c>
       <c r="K2" t="n">
-        <v>92200.07722403664</v>
+        <v>92200.07722403666</v>
       </c>
       <c r="L2" t="n">
-        <v>93825.78098082147</v>
+        <v>92200.07722403666</v>
       </c>
       <c r="M2" t="n">
         <v>93825.78098082147</v>
       </c>
       <c r="N2" t="n">
-        <v>93825.7809808215</v>
+        <v>93825.78098082148</v>
       </c>
       <c r="O2" t="n">
-        <v>93825.78098082145</v>
+        <v>93825.78098082147</v>
       </c>
       <c r="P2" t="n">
-        <v>93825.78098082148</v>
+        <v>93825.78098082147</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53344.06581631866</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>158717.2285962111</v>
+        <v>143084.0826105966</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510031</v>
+        <v>16812.40227510025</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24459.99848317884</v>
+        <v>19372.38524636012</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>56451.54017170907</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132471.1406570149</v>
+        <v>132411.7197519882</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>105313.4899328886</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>129865.9200706957</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>735.1045119022449</v>
+        <v>744.1496802127187</v>
       </c>
       <c r="F4" t="n">
-        <v>762.8454367128343</v>
+        <v>771.890605023308</v>
       </c>
       <c r="G4" t="n">
-        <v>762.8454367128343</v>
+        <v>771.8906050233079</v>
       </c>
       <c r="H4" t="n">
-        <v>762.8454367128345</v>
+        <v>771.8906050233079</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26445,13 +26445,13 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>6148.690207415874</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>6148.690207415877</v>
+        <v>6148.690207415868</v>
       </c>
       <c r="N4" t="n">
-        <v>16466.62778780239</v>
+        <v>16466.62778780235</v>
       </c>
       <c r="O4" t="n">
         <v>16466.62778780235</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>69865.88913079081</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>68558.17706174901</v>
+        <v>69721.40555742473</v>
       </c>
       <c r="F5" t="n">
-        <v>72125.72087391997</v>
+        <v>73288.94936959569</v>
       </c>
       <c r="G5" t="n">
-        <v>72125.72087391997</v>
+        <v>73288.94936959569</v>
       </c>
       <c r="H5" t="n">
-        <v>72125.72087391999</v>
+        <v>73288.94936959569</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26497,13 +26497,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826067</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
         <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
         <v>75515.6147260897</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-276958.4010858706</v>
+        <v>-311947.1842132872</v>
       </c>
       <c r="C6" t="n">
-        <v>-134767.1004261606</v>
+        <v>-93891.14979918682</v>
       </c>
       <c r="D6" t="n">
-        <v>-159250.0940369837</v>
+        <v>-93891.14979918684</v>
       </c>
       <c r="E6" t="n">
-        <v>-143954.9847564002</v>
+        <v>-128584.6424614093</v>
       </c>
       <c r="F6" t="n">
-        <v>-2473.407124804071</v>
+        <v>-2690.896014749538</v>
       </c>
       <c r="G6" t="n">
-        <v>14338.99515029626</v>
+        <v>14121.50626035071</v>
       </c>
       <c r="H6" t="n">
-        <v>14338.99515029624</v>
+        <v>14121.50626035072</v>
       </c>
       <c r="I6" t="n">
-        <v>-10784.49225571731</v>
+        <v>-5720.103358281213</v>
       </c>
       <c r="J6" t="n">
-        <v>-97338.95911752866</v>
+        <v>-160999.0668296272</v>
       </c>
       <c r="K6" t="n">
-        <v>13675.50622746152</v>
+        <v>13652.28188807891</v>
       </c>
       <c r="L6" t="n">
-        <v>-47857.60793656413</v>
+        <v>13652.28188807891</v>
       </c>
       <c r="M6" t="n">
-        <v>-123877.20842187</v>
+        <v>-123817.7875168432</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.5384669294</v>
+        <v>1843.538466929414</v>
       </c>
       <c r="O6" t="n">
-        <v>1843.538466929429</v>
+        <v>1843.538466929414</v>
       </c>
       <c r="P6" t="n">
-        <v>1843.538466929429</v>
+        <v>1843.538466929414</v>
       </c>
     </row>
   </sheetData>
@@ -26713,13 +26713,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
         <v>16.23571033874737</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>596.0244922827437</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1127.601596410346</v>
+        <v>1146.733644036591</v>
       </c>
       <c r="F4" t="n">
-        <v>1186.278303847368</v>
+        <v>1205.410351473613</v>
       </c>
       <c r="G4" t="n">
-        <v>1186.278303847368</v>
+        <v>1205.410351473613</v>
       </c>
       <c r="H4" t="n">
-        <v>1186.278303847368</v>
+        <v>1205.410351473613</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>171.7286347626394</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>531.5771041276018</v>
+        <v>479.2184374287341</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702251</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.98219953737703</v>
+        <v>72.85015191113196</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>171.7286347626394</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>531.5771041276018</v>
+        <v>479.2184374287341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>171.7286347626394</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>531.5771041276018</v>
+        <v>479.2184374287341</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702251</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>147.6279365193115</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>5.177731561349844</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>67.71522743278689</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>195.0325855607195</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>328.3742120882345</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>72.71868052833514</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5.631333357557509</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>224.2434265616191</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,13 +27913,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>247.2834141759725</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>268.3206344988664</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.6354800619</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>102.9863699957344</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874769</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>42.55209558322758</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,22 +35170,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>445.085519511991</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N8" t="n">
-        <v>596.0244922827437</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>596.0244922827437</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35261,10 +35261,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>419.4583812045227</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O9" t="n">
-        <v>596.0244922827437</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>81.91367634482933</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,7 +35346,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>632.77867313344</v>
+        <v>853.8611202743807</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,7 +35653,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1086.197173964409</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35662,10 +35662,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>393.7257841191167</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>469.4809625987964</v>
       </c>
       <c r="R17" t="n">
-        <v>12.56950007311843</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>793.8483731151264</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>12.56950007311934</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.6899377778281</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>480.3608287033059</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>462.9617741343482</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900414</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552546</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K37" t="n">
         <v>293.7695028348439</v>
@@ -37470,16 +37470,16 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
         <v>186.127402120901</v>
@@ -37549,7 +37549,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.31828743765</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
         <v>293.7695028348439</v>
@@ -37707,19 +37707,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.31828743765</v>
+        <v>299.5402147526216</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
